--- a/data/trans_camb/IP18A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 11,96</t>
+          <t>-14,82; 11,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 24,43</t>
+          <t>-1,67; 24,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 15,92</t>
+          <t>-44,86; 17,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 18,07</t>
+          <t>-8,65; 16,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 24,92</t>
+          <t>-3,49; 24,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 30,02</t>
+          <t>-33,22; 30,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 10,55</t>
+          <t>-7,26; 10,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 20,2</t>
+          <t>1,58; 20,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 15,02</t>
+          <t>-29,2; 15,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 21,27</t>
+          <t>-22,22; 20,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 45,12</t>
+          <t>-2,29; 46,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,22; 28,03</t>
+          <t>-68,42; 30,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 36,92</t>
+          <t>-12,88; 33,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 48,81</t>
+          <t>-5,72; 49,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 54,61</t>
+          <t>-54,49; 56,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 19,38</t>
+          <t>-11,25; 18,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 36,52</t>
+          <t>2,08; 36,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 25,73</t>
+          <t>-47,5; 26,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,63</t>
+          <t>-4,19; 5,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 3,76</t>
+          <t>-6,53; 4,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-44,03; -24,37</t>
+          <t>-44,09; -25,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 3,87</t>
+          <t>-7,11; 3,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,55</t>
+          <t>-5,78; 4,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,51; -18,04</t>
+          <t>-40,33; -17,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,73</t>
+          <t>-3,8; 3,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,96</t>
+          <t>-4,49; 2,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -25,28</t>
+          <t>-39,37; -25,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 10,52</t>
+          <t>-6,06; 8,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 5,79</t>
+          <t>-9,63; 6,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,8; -36,96</t>
+          <t>-65,17; -38,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 5,98</t>
+          <t>-10,14; 5,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 8,62</t>
+          <t>-8,35; 7,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,87; -27,1</t>
+          <t>-59,59; -27,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 5,74</t>
+          <t>-5,49; 5,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 4,62</t>
+          <t>-6,58; 4,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,69; -38,4</t>
+          <t>-58,33; -38,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 12,61</t>
+          <t>-5,63; 12,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 10,89</t>
+          <t>-6,82; 10,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-48,02; -17,56</t>
+          <t>-48,37; -16,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 19,05</t>
+          <t>2,27; 20,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 12,99</t>
+          <t>-6,64; 12,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,85; -10,01</t>
+          <t>-40,61; -9,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 14,13</t>
+          <t>0,6; 13,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 9,41</t>
+          <t>-3,43; 9,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-40,38; -18,07</t>
+          <t>-40,91; -20,61</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 23,66</t>
+          <t>-8,6; 23,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 20,15</t>
+          <t>-10,89; 20,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,15; -32,11</t>
+          <t>-79,43; -29,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 37,54</t>
+          <t>3,63; 39,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 25,27</t>
+          <t>-10,92; 24,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,83; -19,03</t>
+          <t>-70,32; -18,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,92; 25,55</t>
+          <t>1,24; 25,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 17,59</t>
+          <t>-5,74; 17,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -32,36</t>
+          <t>-69,39; -36,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,99</t>
+          <t>-3,14; 5,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,78</t>
+          <t>-3,6; 5,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-40,21; -24,59</t>
+          <t>-40,4; -25,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,6</t>
+          <t>-2,11; 7,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,8</t>
+          <t>-2,3; 6,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -16,8</t>
+          <t>-35,94; -18,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,98</t>
+          <t>-1,02; 5,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,38</t>
+          <t>-1,61; 4,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-35,7; -24,4</t>
+          <t>-35,87; -24,09</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 9,67</t>
+          <t>-4,69; 9,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 7,55</t>
+          <t>-5,34; 8,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,95; -38,31</t>
+          <t>-62,14; -39,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,9</t>
+          <t>-3,2; 11,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 11,23</t>
+          <t>-3,53; 11,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,86; -27,13</t>
+          <t>-56,29; -29,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 8,1</t>
+          <t>-1,55; 8,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,02</t>
+          <t>-2,49; 7,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,72; -38,89</t>
+          <t>-55,53; -38,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,12</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 16,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 25,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,53; 29,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,56; 13,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 23,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,4; 15,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,18; 10,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 20,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,52; 13,86</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,88%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; 31,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 50,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,38; 55,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,96; 24,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 42,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,82; 26,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; 18,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,56; 36,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,85; 24,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,42</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,03</t>
+          <t>-28,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-34,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,43</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,24</t>
+          <t>-31,94</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 11,74</t>
+          <t>-6,95; 3,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 24,43</t>
+          <t>-5,41; 5,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 17,81</t>
+          <t>-39,33; -16,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 16,97</t>
+          <t>-4,29; 6,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 24,84</t>
+          <t>-6,84; 3,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 30,47</t>
+          <t>-44,21; -24,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 10,3</t>
+          <t>-3,74; 3,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 20,59</t>
+          <t>-4,44; 2,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 15,79</t>
+          <t>-39,24; -23,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,19%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,98%</t>
+          <t>-43,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-51,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>-47,86%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 20,65</t>
+          <t>-9,95; 6,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 46,9</t>
+          <t>-7,86; 8,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 30,33</t>
+          <t>-58,12; -24,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 33,99</t>
+          <t>-6,16; 10,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 49,84</t>
+          <t>-9,93; 5,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 56,59</t>
+          <t>-64,44; -35,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 18,64</t>
+          <t>-5,49; 6,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 36,23</t>
+          <t>-6,51; 4,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 26,28</t>
+          <t>-57,96; -35,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-35,01</t>
+          <t>-26,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,76</t>
+          <t>-33,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-32,77</t>
+          <t>-29,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 5,54</t>
+          <t>2,05; 20,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 4,16</t>
+          <t>-5,5; 12,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-44,09; -25,12</t>
+          <t>-40,16; -9,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,67</t>
+          <t>-6,44; 12,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,95</t>
+          <t>-7,89; 11,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,33; -17,92</t>
+          <t>-48,59; -17,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,77</t>
+          <t>0,91; 13,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,91</t>
+          <t>-2,85; 9,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-39,37; -25,65</t>
+          <t>-39,61; -17,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-52,52%</t>
+          <t>-46,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,34%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,54%</t>
+          <t>-56,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-49,1%</t>
+          <t>-51,96%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 8,86</t>
+          <t>3,21; 39,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 6,55</t>
+          <t>-9,23; 25,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,17; -38,62</t>
+          <t>-69,46; -18,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 5,84</t>
+          <t>-9,69; 22,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 7,9</t>
+          <t>-11,95; 20,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,59; -27,48</t>
+          <t>-79,75; -30,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 5,91</t>
+          <t>1,48; 25,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 4,45</t>
+          <t>-4,82; 18,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,33; -38,9</t>
+          <t>-68,2; -30,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-34,68</t>
+          <t>-25,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-26,71</t>
+          <t>-32,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-30,69</t>
+          <t>-29,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 12,77</t>
+          <t>-2,24; 6,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 10,91</t>
+          <t>-2,03; 6,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-48,37; -16,43</t>
+          <t>-34,43; -16,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 20,26</t>
+          <t>-2,81; 5,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 12,68</t>
+          <t>-3,82; 4,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -9,77</t>
+          <t>-40,37; -24,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 13,47</t>
+          <t>-1,23; 5,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 9,32</t>
+          <t>-1,62; 4,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-40,91; -20,61</t>
+          <t>-35,24; -22,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-58,64%</t>
+          <t>-41,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-48,08%</t>
+          <t>-50,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-53,6%</t>
+          <t>-46,26%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 23,59</t>
+          <t>-3,44; 10,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 20,19</t>
+          <t>-3,09; 11,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,43; -29,75</t>
+          <t>-53,83; -27,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,63; 39,63</t>
+          <t>-4,22; 9,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 24,58</t>
+          <t>-5,74; 7,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,32; -18,95</t>
+          <t>-61,76; -38,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 25,34</t>
+          <t>-1,88; 8,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 17,31</t>
+          <t>-2,49; 7,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,39; -36,12</t>
+          <t>-55,28; -36,54</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-33,17</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-26,66</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-30,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 5,55</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 5,09</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-40,4; -25,01</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 7,16</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 6,81</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-35,94; -18,33</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 5,16</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 4,35</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-35,87; -24,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,28%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-51,54%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-42,44%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-47,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 9,05</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 8,27</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-62,14; -39,46</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 11,94</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 11,24</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-56,29; -29,37</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 8,42</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 7,07</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-55,53; -38,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
